--- a/09-02-2024--checkbox missing cases.xlsx
+++ b/09-02-2024--checkbox missing cases.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav.S (F8207D11)\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AE7BF7-4C37-49E8-8C77-9002DD6D01C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77533028-2098-4839-8E7D-4DB97F6D2080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4850BE0-72FF-498E-ABEA-2245EB9C8965}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A4850BE0-72FF-498E-ABEA-2245EB9C8965}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16640" uniqueCount="4038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17098" uniqueCount="4320">
   <si>
     <t>_</t>
   </si>
@@ -12150,6 +12151,852 @@
   </si>
   <si>
     <t>a0HNz000000q1svMAA</t>
+  </si>
+  <si>
+    <t>Email__c</t>
+  </si>
+  <si>
+    <t>V_Agent_External_Id__c</t>
+  </si>
+  <si>
+    <t>Agent_External_ID__c</t>
+  </si>
+  <si>
+    <t>EWI_Landlord_Id__c</t>
+  </si>
+  <si>
+    <t>Tenant_External_ID__c</t>
+  </si>
+  <si>
+    <t>EWI_Matching_Reference__c</t>
+  </si>
+  <si>
+    <t>[Account]</t>
+  </si>
+  <si>
+    <t>0018d00000WwiRnAAJ</t>
+  </si>
+  <si>
+    <t>janejonesjanecarmanjones@outlook.com</t>
+  </si>
+  <si>
+    <t>0018d00000aEZUvAAO</t>
+  </si>
+  <si>
+    <t>christophermannchris.mann31013@gmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000aFSfkAAG</t>
+  </si>
+  <si>
+    <t>liammcgrathliam@ejmcgrath.co.uk</t>
+  </si>
+  <si>
+    <t>0018d00000aFYTjAAO</t>
+  </si>
+  <si>
+    <t>anthonykelseytonykelsey_co@hotmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000aGR9sAAG</t>
+  </si>
+  <si>
+    <t>gynestahowellhowellgraham1985@gmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000dwHU1AAM</t>
+  </si>
+  <si>
+    <t>lesaelgarlesajelgar@gmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000gWwNeAAK</t>
+  </si>
+  <si>
+    <t>brianstoneb.stone53@hotmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000gXflWAAS</t>
+  </si>
+  <si>
+    <t>julialongjulialong@tenancydepositscheme.com</t>
+  </si>
+  <si>
+    <t>0018d00000ioQZgAAM</t>
+  </si>
+  <si>
+    <t>jo-hannahamiltonhamiltonsmith2009@me.com</t>
+  </si>
+  <si>
+    <t>0018d00000iocApAAI</t>
+  </si>
+  <si>
+    <t>jainishakanzariajainisha_k@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>0018d00000iokBaAAI</t>
+  </si>
+  <si>
+    <t>karolinehorseykhorsey@setfords.co.uk</t>
+  </si>
+  <si>
+    <t>0018d00000ipREPAA2</t>
+  </si>
+  <si>
+    <t>annadobek-jonkaitisrenasjon@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>0018d00000iqFUnAAM</t>
+  </si>
+  <si>
+    <t>marianafazaahussem_joseph@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>0018d00000iqVgnAAE</t>
+  </si>
+  <si>
+    <t>davidlesterdavid.lester@live.co.uk</t>
+  </si>
+  <si>
+    <t>0018d00000ir9VTAAY</t>
+  </si>
+  <si>
+    <t>deborahyeatesdebbiegibbs24@gmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000irDnKAAU</t>
+  </si>
+  <si>
+    <t>finncainfinncainiom@outlook.com</t>
+  </si>
+  <si>
+    <t>0018d00000is1ilAAA</t>
+  </si>
+  <si>
+    <t>gilliancregggillcregg@gmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000is78GAAQ</t>
+  </si>
+  <si>
+    <t>martinsandersonmartin.sanderson2407@gmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000lvOd9AAE</t>
+  </si>
+  <si>
+    <t>michalcabajseemehow@gmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000lw1fIAAQ</t>
+  </si>
+  <si>
+    <t>daliaelmasridalia75elmasri@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>0018d00000lw1vyAAA</t>
+  </si>
+  <si>
+    <t>adriannayloradriannaylor@me.com</t>
+  </si>
+  <si>
+    <t>0018d00000lxmiJAAQ</t>
+  </si>
+  <si>
+    <t>sanjivbalachandransb_sanjiv@yahoo.com</t>
+  </si>
+  <si>
+    <t>0018d00000lyIXeAAM</t>
+  </si>
+  <si>
+    <t>bernardlawrencebernie.lawrence42@gmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000lyTrfAAE</t>
+  </si>
+  <si>
+    <t>fleetwooddevelopmentsltdroger.kilby@btinternet.com</t>
+  </si>
+  <si>
+    <t>0018d00000lyYKGAA2</t>
+  </si>
+  <si>
+    <t>elizabethfindlaylizfindlay@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>0018d00000lyiWLAAY</t>
+  </si>
+  <si>
+    <t>rhysowenrhys.tudur.owen@gmail.com</t>
+  </si>
+  <si>
+    <t>0018d00000lzYr8AAE</t>
+  </si>
+  <si>
+    <t>elizabethfindlaylizfindlay@myyahoo.com</t>
+  </si>
+  <si>
+    <t>0018d00000pzQMnAAM</t>
+  </si>
+  <si>
+    <t>aliyakhanaliyakhan22@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>0018d00000pzQj9AAE</t>
+  </si>
+  <si>
+    <t>sarahsomanadersarah.horley@sky.com</t>
+  </si>
+  <si>
+    <t>0018d00000pzUFJAA2</t>
+  </si>
+  <si>
+    <t>faridmaltymalty7777777@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000003c70PIAQ</t>
+  </si>
+  <si>
+    <t>kulvinderchandaleanu.c@btinternet.com</t>
+  </si>
+  <si>
+    <t>001Nz000003oNawIAE</t>
+  </si>
+  <si>
+    <t>charlottewalshcharlotte.walsh01@googlemail.com</t>
+  </si>
+  <si>
+    <t>001Nz000003rlNIIAY</t>
+  </si>
+  <si>
+    <t>andrewreadinfo@read-properties.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000003uq5VIAQ</t>
+  </si>
+  <si>
+    <t>lynnfreemanlynn-freeman@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz0000042Tv0IAE</t>
+  </si>
+  <si>
+    <t>nathanwilsonplaytownrecords@hotmail.com</t>
+  </si>
+  <si>
+    <t>001Nz0000049eNNIAY</t>
+  </si>
+  <si>
+    <t>robynforbesrobyn@stuartforbes.com</t>
+  </si>
+  <si>
+    <t>001Nz000004FRQcIAO</t>
+  </si>
+  <si>
+    <t>001Nz000004QJPrIAO</t>
+  </si>
+  <si>
+    <t>amikullimitedjaz_16985@hotmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000004df98IAA</t>
+  </si>
+  <si>
+    <t>nickdilworthnickdilworth81@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000004doXmIAI</t>
+  </si>
+  <si>
+    <t>ronaldgriffithsronaldgriffiths639@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000004hS0OIAU</t>
+  </si>
+  <si>
+    <t>daliaelmasridigitaltahir.org@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000004iLTDIA2</t>
+  </si>
+  <si>
+    <t>mikewhelanaccounts@withersandco.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000004tGulIAE</t>
+  </si>
+  <si>
+    <t>andrewkingabyandrewkingaby@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000004vPqhIAE</t>
+  </si>
+  <si>
+    <t>ravindersaini-sandhuravi.ss1901@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000004wlE2IAI</t>
+  </si>
+  <si>
+    <t>jameschiswelljames.chiswell@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz00000540RaIAI</t>
+  </si>
+  <si>
+    <t>001Nz000005AenjIAC</t>
+  </si>
+  <si>
+    <t>lilihoulilihou118@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000005ItXtIAK</t>
+  </si>
+  <si>
+    <t>ivelinaivanovaiva_ini@outlook.com</t>
+  </si>
+  <si>
+    <t>001Nz000005MsmvIAC</t>
+  </si>
+  <si>
+    <t>richardchapmanrichard_ln_chapman@hotmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000005awlmIAA</t>
+  </si>
+  <si>
+    <t>001Nz000005bi7JIAQ</t>
+  </si>
+  <si>
+    <t>dexterscityandeastcityandeastpropertymanagement5@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000005bnQOIAY</t>
+  </si>
+  <si>
+    <t>001Nz000005bq9gIAA</t>
+  </si>
+  <si>
+    <t>dexterssouthsouthpropertymanagement@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000005hP3aIAE</t>
+  </si>
+  <si>
+    <t>carolyneryallbramcotefamily@outlook.com</t>
+  </si>
+  <si>
+    <t>001Nz000005hQakIAE</t>
+  </si>
+  <si>
+    <t>rachaelcharlesrachael_charles@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000005iGuHIAU</t>
+  </si>
+  <si>
+    <t>satnamwilliamssatty_narula@hotmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000005iOexIAE</t>
+  </si>
+  <si>
+    <t>deeantoniounitsaantoniou64@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000005jhE4IAI</t>
+  </si>
+  <si>
+    <t>dexterscentralcentralpropertymanagement2@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000005jwd1IAA</t>
+  </si>
+  <si>
+    <t>samuelvannieuwkerksamuel.vn@carterjonas.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000005kNhwIAE</t>
+  </si>
+  <si>
+    <t>richardholmesrichard.a.holmes@mac.com</t>
+  </si>
+  <si>
+    <t>001Nz000005nk3jIAA</t>
+  </si>
+  <si>
+    <t>raansestateslimitedjohn.raansfarm@talktalk.net</t>
+  </si>
+  <si>
+    <t>001Nz000005ttInIAI</t>
+  </si>
+  <si>
+    <t>richardgantlettrasgantlett@outlook.com</t>
+  </si>
+  <si>
+    <t>001Nz000005vGIAIA2</t>
+  </si>
+  <si>
+    <t>resiwestresiwest@propertymanagementteam.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000005vGJkIAM</t>
+  </si>
+  <si>
+    <t>001Nz000005wGJHIA2</t>
+  </si>
+  <si>
+    <t>chrisdrakelauren@lightscarsaction.com</t>
+  </si>
+  <si>
+    <t>001Nz000005zWBRIA2</t>
+  </si>
+  <si>
+    <t>dextersrichmondandkingstonrichmondandkingstonpropertymanagement2@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz0000061K7pIAE</t>
+  </si>
+  <si>
+    <t>001Nz0000061RFhIAM</t>
+  </si>
+  <si>
+    <t>sarahjonesmplettings@martinpendered.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz0000062NyAIAU</t>
+  </si>
+  <si>
+    <t>elaudinaminjaminjakleon@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz0000062nxJIAQ</t>
+  </si>
+  <si>
+    <t>binghan61929493@qq.com</t>
+  </si>
+  <si>
+    <t>001Nz0000064pwdIAA</t>
+  </si>
+  <si>
+    <t>benwoodbenwood@frankharris.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz0000068V4rIAE</t>
+  </si>
+  <si>
+    <t>graemecarruthersgraeme.carruthers@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000006BYJ6IAO</t>
+  </si>
+  <si>
+    <t>silviabadialisilvia.badiali@yahoo.com</t>
+  </si>
+  <si>
+    <t>001Nz000006CwXvIAK</t>
+  </si>
+  <si>
+    <t>dexterssouthsouthpropertymanagement3@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000006F3v2IAC</t>
+  </si>
+  <si>
+    <t>001Nz000006FFwFIAW</t>
+  </si>
+  <si>
+    <t>fahimamiahfahimamiah@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000006R1skIAC</t>
+  </si>
+  <si>
+    <t>gratianestatesincgratianestates.inc@hotmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000006RBlcIAG</t>
+  </si>
+  <si>
+    <t>rajanahujamlhprop333@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000006ROywIAG</t>
+  </si>
+  <si>
+    <t>chriswarrenchriswarren01@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000006U8frIAC</t>
+  </si>
+  <si>
+    <t>lucindacrowhurstmarkcandlucyg@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000006VAz4IAG</t>
+  </si>
+  <si>
+    <t>angelablundenajblunden@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000006XaKiIAK</t>
+  </si>
+  <si>
+    <t>javedrahmanjaved.rahman@howkinsandharrison.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000006aENeIAM</t>
+  </si>
+  <si>
+    <t>nataliebrossardnatbrossard@protonmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000006d65OIAQ</t>
+  </si>
+  <si>
+    <t>joannamartinjoanna.martin@douglasallen.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000006fq7LIAQ</t>
+  </si>
+  <si>
+    <t>russellcassletonelliottrussell@cassletonelliott.com</t>
+  </si>
+  <si>
+    <t>001Nz000006kLsSIAU</t>
+  </si>
+  <si>
+    <t>001Nz000006lQTVIA2</t>
+  </si>
+  <si>
+    <t>michelletopham22rodwellgardens@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000006mZcmIAE</t>
+  </si>
+  <si>
+    <t>luyangwamc444@163.com</t>
+  </si>
+  <si>
+    <t>001Nz000006pd0mIAA</t>
+  </si>
+  <si>
+    <t>bailey-jostruttonbaileystrutton@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000006pnLCIAY</t>
+  </si>
+  <si>
+    <t>isabellaboydenisabella.boyden@savills.com</t>
+  </si>
+  <si>
+    <t>001Nz000006pzcMIAQ</t>
+  </si>
+  <si>
+    <t>001Nz000006qWWlIAM</t>
+  </si>
+  <si>
+    <t>christopherwoodcockchris@shouson.com</t>
+  </si>
+  <si>
+    <t>001Nz000006smfSIAQ</t>
+  </si>
+  <si>
+    <t>westpropertymanagementwestpropertymanagement@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000006syOlIAI</t>
+  </si>
+  <si>
+    <t>andycottrellaaaaandy@googlemail.com</t>
+  </si>
+  <si>
+    <t>001Nz000006uGmkIAE</t>
+  </si>
+  <si>
+    <t>travisraggobeertravisr82@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz0000070zfTIAQ</t>
+  </si>
+  <si>
+    <t>johnfredericklattimorejohn.lattimore@gpflewis.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz0000072NqyIAE</t>
+  </si>
+  <si>
+    <t>sarikachaddasarika_chadda@hotmail.com</t>
+  </si>
+  <si>
+    <t>001Nz00000731lMIAQ</t>
+  </si>
+  <si>
+    <t>williamdyerbartlettdyerbartlett@aol.com</t>
+  </si>
+  <si>
+    <t>001Nz0000073X3XIAU</t>
+  </si>
+  <si>
+    <t>ashikkesvanikes786@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz0000074MkJIAU</t>
+  </si>
+  <si>
+    <t>001Nz00000764xoIAA</t>
+  </si>
+  <si>
+    <t>001Nz0000077QprIAE</t>
+  </si>
+  <si>
+    <t>tommichietom@charwillmanagement.com</t>
+  </si>
+  <si>
+    <t>001Nz0000079X7EIAU</t>
+  </si>
+  <si>
+    <t>hineshpatelhineshbpatel@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz0000079XlcIAE</t>
+  </si>
+  <si>
+    <t>debbie-anncharlesdrdebian@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz0000079bE5IAI</t>
+  </si>
+  <si>
+    <t>nilakshirupikapathirawasammadugodagemudith40@hotmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007A8A1IAK</t>
+  </si>
+  <si>
+    <t>dexterscentralcentralpropertymanagement3@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000007AGsMIAW</t>
+  </si>
+  <si>
+    <t>andrewallanandrew.allan1961a@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007BOXdIAO</t>
+  </si>
+  <si>
+    <t>001Nz000007I6m8IAC</t>
+  </si>
+  <si>
+    <t>krishnapatelhema1957@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000007LG5wIAG</t>
+  </si>
+  <si>
+    <t>alexarosenajrosen.wings@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007LPYwIAO</t>
+  </si>
+  <si>
+    <t>anthonyschembriaschembri949@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007LXq9IAG</t>
+  </si>
+  <si>
+    <t>001Nz000007NTi6IAG</t>
+  </si>
+  <si>
+    <t>leefremelfremelandbrice@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007NzDKIA0</t>
+  </si>
+  <si>
+    <t>muhammadahsanaalibaba15@yahoo.com</t>
+  </si>
+  <si>
+    <t>001Nz000007OD1lIAG</t>
+  </si>
+  <si>
+    <t>melissamcgaughinm.mcgaughin@beresfords.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000007OZ5UIAW</t>
+  </si>
+  <si>
+    <t>001Nz000007Opi8IAC</t>
+  </si>
+  <si>
+    <t>001Nz000007QpngIAC</t>
+  </si>
+  <si>
+    <t>martinclarksusanclark354@btinternet.com</t>
+  </si>
+  <si>
+    <t>001Nz000007R6yCIAS</t>
+  </si>
+  <si>
+    <t>001Nz000007RQYiIAO</t>
+  </si>
+  <si>
+    <t>001Nz000007RYXsIAO</t>
+  </si>
+  <si>
+    <t>williamjoynsonmark.joynson@talktalk.net</t>
+  </si>
+  <si>
+    <t>001Nz000007SX3XIAW</t>
+  </si>
+  <si>
+    <t>mariellametcalfemariella.metcalfe@wiltonrecap.com</t>
+  </si>
+  <si>
+    <t>001Nz000007SYMGIA4</t>
+  </si>
+  <si>
+    <t>monikarakmonika.maguda@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007VkqYIAS</t>
+  </si>
+  <si>
+    <t>001Nz000007WTqwIAG</t>
+  </si>
+  <si>
+    <t>louisewilkesinfo@kendallsflorist.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000007WgubIAC</t>
+  </si>
+  <si>
+    <t>001Nz000007WlKoIAK</t>
+  </si>
+  <si>
+    <t>malcolmknoxkimknox21@googlemail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007WzFiIAK</t>
+  </si>
+  <si>
+    <t>victoriagreenvictoriakgreen@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000007Ycv5IAC</t>
+  </si>
+  <si>
+    <t>001Nz000007ZiQTIA0</t>
+  </si>
+  <si>
+    <t>thebretbyparksettlementcaiperkins@hotmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007aHPhIAM</t>
+  </si>
+  <si>
+    <t>001Nz000007aKdqIAE</t>
+  </si>
+  <si>
+    <t>yasarahmadyasarahmad@icloud.com</t>
+  </si>
+  <si>
+    <t>001Nz000007bevOIAQ</t>
+  </si>
+  <si>
+    <t>dextersrichmondandkingstonrichmondandkingstonpropertymanagement4@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000007dT7nIAE</t>
+  </si>
+  <si>
+    <t>colinquinn-smith10ruesaintvinccent@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007go4VIAQ</t>
+  </si>
+  <si>
+    <t>deepeshrathoddrathod75@yahoo.com</t>
+  </si>
+  <si>
+    <t>001Nz000007ma21IAA</t>
+  </si>
+  <si>
+    <t>richardparryrichard.parry16@outlook.com</t>
+  </si>
+  <si>
+    <t>001Nz000007nxXkIAI</t>
+  </si>
+  <si>
+    <t>peterduboispeter.dubois@telia.com</t>
+  </si>
+  <si>
+    <t>001Nz000007opEcIAI</t>
+  </si>
+  <si>
+    <t>001Nz000007orQFIAY</t>
+  </si>
+  <si>
+    <t>clearviewhouselimitedfinance@clearviewhomes.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000007oy6eIAA</t>
+  </si>
+  <si>
+    <t>abbietallackabbie.tallack@cubittandwest.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000007r16rIAA</t>
+  </si>
+  <si>
+    <t>kavitakulavarasalingamkavi911@hotmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007rVY2IAM</t>
+  </si>
+  <si>
+    <t>aydinarslanaydin@linleyandsimpson.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000007raPgIAI</t>
+  </si>
+  <si>
+    <t>jaspalbhamrajaspal.bhamra@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz000007rgA2IAI</t>
+  </si>
+  <si>
+    <t>001Nz000007sV7iIAE</t>
+  </si>
+  <si>
+    <t>haricolehari_cole@hotmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007tpSYIAY</t>
+  </si>
+  <si>
+    <t>danielprideauxdanielprideaux@ymail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007vm5ZIAQ</t>
+  </si>
+  <si>
+    <t>karonsheenkaron.sheen@sky.com</t>
+  </si>
+  <si>
+    <t>001Nz000007xJh2IAE</t>
+  </si>
+  <si>
+    <t>001Nz000007xaWTIAY</t>
+  </si>
+  <si>
+    <t>001Nz000007ybn9IAA</t>
+  </si>
+  <si>
+    <t>tomomikimura-wozniakarabidian@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -12523,8 +13370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE64D9-4995-402B-96A9-D0A5866E8BC3}">
   <dimension ref="A1:H2377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2377"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -74334,4 +75181,2145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E191D2-8F29-433E-B86D-CAB7B12C6ADF}">
+  <dimension ref="A1:H151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H151"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4038</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4040</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4041</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4045</v>
+      </c>
+      <c r="D2">
+        <v>172834</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4047</v>
+      </c>
+      <c r="D3">
+        <v>173131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4049</v>
+      </c>
+      <c r="D4">
+        <v>173946</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4051</v>
+      </c>
+      <c r="D5">
+        <v>174055</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D6">
+        <v>175065</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4055</v>
+      </c>
+      <c r="D7">
+        <v>176378</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4057</v>
+      </c>
+      <c r="D8">
+        <v>180234</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D9">
+        <v>180917</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4061</v>
+      </c>
+      <c r="D10">
+        <v>183644</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D11">
+        <v>183079</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4065</v>
+      </c>
+      <c r="D12">
+        <v>184050</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D13">
+        <v>182884</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4069</v>
+      </c>
+      <c r="D14">
+        <v>186035</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D15">
+        <v>186267</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D16">
+        <v>186833</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D17">
+        <v>186031</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D18">
+        <v>187845</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D19">
+        <v>187904</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D20">
+        <v>188414</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D21">
+        <v>189273</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D22">
+        <v>189294</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D23">
+        <v>176193</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4089</v>
+      </c>
+      <c r="D24">
+        <v>190267</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D25">
+        <v>15123</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D26">
+        <v>188670</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D27">
+        <v>190812</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D28">
+        <v>192116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4099</v>
+      </c>
+      <c r="D29">
+        <v>192652</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4101</v>
+      </c>
+      <c r="D30">
+        <v>161737</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D31">
+        <v>192754</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4105</v>
+      </c>
+      <c r="D32">
+        <v>194479</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4107</v>
+      </c>
+      <c r="D33">
+        <v>195142</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D34">
+        <v>190573</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D35">
+        <v>195449</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D36">
+        <v>195826</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4115</v>
+      </c>
+      <c r="D37">
+        <v>196094</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4117</v>
+      </c>
+      <c r="D38">
+        <v>189273</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D39">
+        <v>196824</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4120</v>
+      </c>
+      <c r="D40">
+        <v>197417</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D41">
+        <v>197456</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4124</v>
+      </c>
+      <c r="D42">
+        <v>195434</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4126</v>
+      </c>
+      <c r="D43">
+        <v>197608</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4128</v>
+      </c>
+      <c r="D44">
+        <v>198146</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4130</v>
+      </c>
+      <c r="D45">
+        <v>198230</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4132</v>
+      </c>
+      <c r="D46">
+        <v>198287</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4134</v>
+      </c>
+      <c r="D47">
+        <v>197417</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4135</v>
+      </c>
+      <c r="D48">
+        <v>198936</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4137</v>
+      </c>
+      <c r="D49">
+        <v>199279</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4139</v>
+      </c>
+      <c r="D50">
+        <v>199444</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D51">
+        <v>195434</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4142</v>
+      </c>
+      <c r="D52">
+        <v>177639</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4144</v>
+      </c>
+      <c r="D53">
+        <v>177639</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4145</v>
+      </c>
+      <c r="D54">
+        <v>68834</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4147</v>
+      </c>
+      <c r="D55">
+        <v>200416</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4149</v>
+      </c>
+      <c r="D56">
+        <v>200409</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4151</v>
+      </c>
+      <c r="D57">
+        <v>200450</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D58">
+        <v>200461</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D59">
+        <v>115441</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4157</v>
+      </c>
+      <c r="D60">
+        <v>197972</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4159</v>
+      </c>
+      <c r="D61">
+        <v>200542</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4161</v>
+      </c>
+      <c r="D62">
+        <v>91821</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4163</v>
+      </c>
+      <c r="D63">
+        <v>112070</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4165</v>
+      </c>
+      <c r="D64">
+        <v>177452</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4167</v>
+      </c>
+      <c r="D65">
+        <v>177452</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4168</v>
+      </c>
+      <c r="D66">
+        <v>201021</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4170</v>
+      </c>
+      <c r="D67">
+        <v>144079</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4172</v>
+      </c>
+      <c r="D68">
+        <v>68834</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4173</v>
+      </c>
+      <c r="D69">
+        <v>48936</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4175</v>
+      </c>
+      <c r="D70">
+        <v>201304</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4177</v>
+      </c>
+      <c r="D71">
+        <v>201324</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4179</v>
+      </c>
+      <c r="D72">
+        <v>32284</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4181</v>
+      </c>
+      <c r="D73">
+        <v>201502</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4183</v>
+      </c>
+      <c r="D74">
+        <v>200672</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4185</v>
+      </c>
+      <c r="D75">
+        <v>177644</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4187</v>
+      </c>
+      <c r="D76">
+        <v>195434</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4188</v>
+      </c>
+      <c r="D77">
+        <v>180172</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4190</v>
+      </c>
+      <c r="D78">
+        <v>201775</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4192</v>
+      </c>
+      <c r="D79">
+        <v>202129</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4194</v>
+      </c>
+      <c r="D80">
+        <v>201267</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4196</v>
+      </c>
+      <c r="D81">
+        <v>202241</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4198</v>
+      </c>
+      <c r="D82">
+        <v>202140</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4200</v>
+      </c>
+      <c r="D83">
+        <v>202412</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4202</v>
+      </c>
+      <c r="D84">
+        <v>109024</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D85">
+        <v>202604</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4206</v>
+      </c>
+      <c r="D86">
+        <v>202734</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4208</v>
+      </c>
+      <c r="D87">
+        <v>177452</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4209</v>
+      </c>
+      <c r="D88">
+        <v>202889</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D89">
+        <v>202953</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4213</v>
+      </c>
+      <c r="D90">
+        <v>149907</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4215</v>
+      </c>
+      <c r="D91">
+        <v>203065</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4217</v>
+      </c>
+      <c r="D92">
+        <v>115441</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4218</v>
+      </c>
+      <c r="D93">
+        <v>203114</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4220</v>
+      </c>
+      <c r="D94">
+        <v>126931</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4222</v>
+      </c>
+      <c r="D95">
+        <v>203148</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4224</v>
+      </c>
+      <c r="D96">
+        <v>203229</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4226</v>
+      </c>
+      <c r="D97">
+        <v>203519</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4228</v>
+      </c>
+      <c r="D98">
+        <v>116942</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4230</v>
+      </c>
+      <c r="D99">
+        <v>203472</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4232</v>
+      </c>
+      <c r="D100">
+        <v>203614</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D101">
+        <v>149907</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D102">
+        <v>177644</v>
+      </c>
+      <c r="H102" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4236</v>
+      </c>
+      <c r="D103">
+        <v>172701</v>
+      </c>
+      <c r="H103" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4238</v>
+      </c>
+      <c r="D104">
+        <v>203884</v>
+      </c>
+      <c r="H104" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4240</v>
+      </c>
+      <c r="D105">
+        <v>203882</v>
+      </c>
+      <c r="H105" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D106">
+        <v>203855</v>
+      </c>
+      <c r="H106" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4244</v>
+      </c>
+      <c r="D107">
+        <v>177638</v>
+      </c>
+      <c r="H107" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4246</v>
+      </c>
+      <c r="D108">
+        <v>203947</v>
+      </c>
+      <c r="H108" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4248</v>
+      </c>
+      <c r="D109">
+        <v>202953</v>
+      </c>
+      <c r="H109" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4249</v>
+      </c>
+      <c r="D110">
+        <v>204248</v>
+      </c>
+      <c r="H110" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4251</v>
+      </c>
+      <c r="D111">
+        <v>198444</v>
+      </c>
+      <c r="H111" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4253</v>
+      </c>
+      <c r="D112">
+        <v>204414</v>
+      </c>
+      <c r="H112" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D113">
+        <v>115441</v>
+      </c>
+      <c r="H113" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4256</v>
+      </c>
+      <c r="D114">
+        <v>204498</v>
+      </c>
+      <c r="H114" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D115">
+        <v>204523</v>
+      </c>
+      <c r="H115" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D116">
+        <v>20321</v>
+      </c>
+      <c r="H116" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4262</v>
+      </c>
+      <c r="D117">
+        <v>115441</v>
+      </c>
+      <c r="H117" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D118">
+        <v>32284</v>
+      </c>
+      <c r="H118" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4264</v>
+      </c>
+      <c r="D119">
+        <v>204643</v>
+      </c>
+      <c r="H119" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D120">
+        <v>20321</v>
+      </c>
+      <c r="H120" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4267</v>
+      </c>
+      <c r="D121">
+        <v>177639</v>
+      </c>
+      <c r="H121" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4268</v>
+      </c>
+      <c r="D122">
+        <v>204705</v>
+      </c>
+      <c r="H122" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4270</v>
+      </c>
+      <c r="D123">
+        <v>97648</v>
+      </c>
+      <c r="H123" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4272</v>
+      </c>
+      <c r="D124">
+        <v>204732</v>
+      </c>
+      <c r="H124" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4274</v>
+      </c>
+      <c r="D125">
+        <v>172701</v>
+      </c>
+      <c r="H125" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4275</v>
+      </c>
+      <c r="D126">
+        <v>204882</v>
+      </c>
+      <c r="H126" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D127">
+        <v>177638</v>
+      </c>
+      <c r="H127" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D128">
+        <v>204900</v>
+      </c>
+      <c r="H128" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4280</v>
+      </c>
+      <c r="D129">
+        <v>204919</v>
+      </c>
+      <c r="H129" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D130">
+        <v>177638</v>
+      </c>
+      <c r="H130" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D131">
+        <v>205054</v>
+      </c>
+      <c r="H131" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D132">
+        <v>203855</v>
+      </c>
+      <c r="H132" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4286</v>
+      </c>
+      <c r="D133">
+        <v>205079</v>
+      </c>
+      <c r="H133" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4288</v>
+      </c>
+      <c r="D134">
+        <v>157911</v>
+      </c>
+      <c r="H134" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4290</v>
+      </c>
+      <c r="D135">
+        <v>205215</v>
+      </c>
+      <c r="H135" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4292</v>
+      </c>
+      <c r="D136">
+        <v>205352</v>
+      </c>
+      <c r="H136" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4294</v>
+      </c>
+      <c r="D137">
+        <v>205379</v>
+      </c>
+      <c r="H137" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4296</v>
+      </c>
+      <c r="D138">
+        <v>205582</v>
+      </c>
+      <c r="H138" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4298</v>
+      </c>
+      <c r="D139">
+        <v>203882</v>
+      </c>
+      <c r="H139" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4299</v>
+      </c>
+      <c r="D140">
+        <v>41640</v>
+      </c>
+      <c r="H140" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D141">
+        <v>205634</v>
+      </c>
+      <c r="H141" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4303</v>
+      </c>
+      <c r="D142">
+        <v>205705</v>
+      </c>
+      <c r="H142" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D143">
+        <v>155549</v>
+      </c>
+      <c r="H143" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D144">
+        <v>205743</v>
+      </c>
+      <c r="H144" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4309</v>
+      </c>
+      <c r="D145">
+        <v>204248</v>
+      </c>
+      <c r="H145" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4310</v>
+      </c>
+      <c r="D146">
+        <v>204001</v>
+      </c>
+      <c r="H146" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4312</v>
+      </c>
+      <c r="D147">
+        <v>205834</v>
+      </c>
+      <c r="H147" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4314</v>
+      </c>
+      <c r="D148">
+        <v>205917</v>
+      </c>
+      <c r="H148" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D149">
+        <v>177639</v>
+      </c>
+      <c r="H149" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D150">
+        <v>177638</v>
+      </c>
+      <c r="H150" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4318</v>
+      </c>
+      <c r="D151">
+        <v>206060</v>
+      </c>
+      <c r="H151" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/09-02-2024--checkbox missing cases.xlsx
+++ b/09-02-2024--checkbox missing cases.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav.S (F8207D11)\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77533028-2098-4839-8E7D-4DB97F6D2080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B9D944-9BD8-4CE3-A0D6-AC4EEC2400DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A4850BE0-72FF-498E-ABEA-2245EB9C8965}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A4850BE0-72FF-498E-ABEA-2245EB9C8965}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17098" uniqueCount="4320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17714" uniqueCount="4452">
   <si>
     <t>_</t>
   </si>
@@ -12997,6 +12998,402 @@
   </si>
   <si>
     <t>tomomikimura-wozniakarabidian@gmail.com</t>
+  </si>
+  <si>
+    <t>PersonEmail</t>
+  </si>
+  <si>
+    <t>janecarmanjones@outlook.com</t>
+  </si>
+  <si>
+    <t>chris.mann31013@gmail.com</t>
+  </si>
+  <si>
+    <t>liam@ejmcgrath.co.uk</t>
+  </si>
+  <si>
+    <t>tonykelsey_co@hotmail.com</t>
+  </si>
+  <si>
+    <t>howellgraham1985@gmail.com</t>
+  </si>
+  <si>
+    <t>lesajelgar@gmail.com</t>
+  </si>
+  <si>
+    <t>b.stone53@hotmail.com</t>
+  </si>
+  <si>
+    <t>julialong@tenancydepositscheme.com</t>
+  </si>
+  <si>
+    <t>hamiltonsmith2009@me.com</t>
+  </si>
+  <si>
+    <t>jainisha_k@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>khorsey@setfords.co.uk</t>
+  </si>
+  <si>
+    <t>renasjon@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>hussem_joseph@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>david.lester@live.co.uk</t>
+  </si>
+  <si>
+    <t>debbiegibbs24@gmail.com</t>
+  </si>
+  <si>
+    <t>finncainiom@outlook.com</t>
+  </si>
+  <si>
+    <t>gillcregg@gmail.com</t>
+  </si>
+  <si>
+    <t>martin.sanderson2407@gmail.com</t>
+  </si>
+  <si>
+    <t>seemehow@gmail.com</t>
+  </si>
+  <si>
+    <t>dalia75elmasri@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>adriannaylor@me.com</t>
+  </si>
+  <si>
+    <t>sb_sanjiv@yahoo.com</t>
+  </si>
+  <si>
+    <t>bernie.lawrence42@gmail.com</t>
+  </si>
+  <si>
+    <t>roger.kilby@btinternet.com</t>
+  </si>
+  <si>
+    <t>lizfindlay@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>rhys.tudur.owen@gmail.com</t>
+  </si>
+  <si>
+    <t>lizfindlay@myyahoo.com</t>
+  </si>
+  <si>
+    <t>aliyakhan22@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>sarah.horley@sky.com</t>
+  </si>
+  <si>
+    <t>malty7777777@gmail.com</t>
+  </si>
+  <si>
+    <t>anu.c@btinternet.com</t>
+  </si>
+  <si>
+    <t>charlotte.walsh01@googlemail.com</t>
+  </si>
+  <si>
+    <t>info@read-properties.co.uk</t>
+  </si>
+  <si>
+    <t>lynn-freeman@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>playtownrecords@hotmail.com</t>
+  </si>
+  <si>
+    <t>robyn@stuartforbes.com</t>
+  </si>
+  <si>
+    <t>jaz_16985@hotmail.com</t>
+  </si>
+  <si>
+    <t>nickdilworth81@gmail.com</t>
+  </si>
+  <si>
+    <t>ronaldgriffiths639@gmail.com</t>
+  </si>
+  <si>
+    <t>digitaltahir.org@gmail.com</t>
+  </si>
+  <si>
+    <t>accounts@withersandco.co.uk</t>
+  </si>
+  <si>
+    <t>andrewkingaby@gmail.com</t>
+  </si>
+  <si>
+    <t>ravi.ss1901@gmail.com</t>
+  </si>
+  <si>
+    <t>james.chiswell@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>lilihou118@gmail.com</t>
+  </si>
+  <si>
+    <t>iva_ini@outlook.com</t>
+  </si>
+  <si>
+    <t>richard_ln_chapman@hotmail.com</t>
+  </si>
+  <si>
+    <t>cityandeastpropertymanagement5@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>southpropertymanagement@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>bramcotefamily@outlook.com</t>
+  </si>
+  <si>
+    <t>rachael_charles@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>satty_narula@hotmail.com</t>
+  </si>
+  <si>
+    <t>nitsaantoniou64@gmail.com</t>
+  </si>
+  <si>
+    <t>centralpropertymanagement2@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>samuel.vn@carterjonas.co.uk</t>
+  </si>
+  <si>
+    <t>richard.a.holmes@mac.com</t>
+  </si>
+  <si>
+    <t>john.raansfarm@talktalk.net</t>
+  </si>
+  <si>
+    <t>rasgantlett@outlook.com</t>
+  </si>
+  <si>
+    <t>resiwest@propertymanagementteam.co.uk</t>
+  </si>
+  <si>
+    <t>lauren@lightscarsaction.com</t>
+  </si>
+  <si>
+    <t>richmondandkingstonpropertymanagement2@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>mplettings@martinpendered.co.uk</t>
+  </si>
+  <si>
+    <t>minjakleon@gmail.com</t>
+  </si>
+  <si>
+    <t>61929493@qq.com</t>
+  </si>
+  <si>
+    <t>benwood@frankharris.co.uk</t>
+  </si>
+  <si>
+    <t>graeme.carruthers@gmail.com</t>
+  </si>
+  <si>
+    <t>silvia.badiali@yahoo.com</t>
+  </si>
+  <si>
+    <t>southpropertymanagement3@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>fahimamiah@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>gratianestates.inc@hotmail.com</t>
+  </si>
+  <si>
+    <t>mlhprop333@gmail.com</t>
+  </si>
+  <si>
+    <t>chriswarren01@gmail.com</t>
+  </si>
+  <si>
+    <t>markcandlucyg@gmail.com</t>
+  </si>
+  <si>
+    <t>ajblunden@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>javed.rahman@howkinsandharrison.co.uk</t>
+  </si>
+  <si>
+    <t>natbrossard@protonmail.com</t>
+  </si>
+  <si>
+    <t>joanna.martin@douglasallen.co.uk</t>
+  </si>
+  <si>
+    <t>russell@cassletonelliott.com</t>
+  </si>
+  <si>
+    <t>22rodwellgardens@gmail.com</t>
+  </si>
+  <si>
+    <t>wamc444@163.com</t>
+  </si>
+  <si>
+    <t>baileystrutton@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>isabella.boyden@savills.com</t>
+  </si>
+  <si>
+    <t>chris@shouson.com</t>
+  </si>
+  <si>
+    <t>westpropertymanagement@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>aaaaandy@googlemail.com</t>
+  </si>
+  <si>
+    <t>travisr82@gmail.com</t>
+  </si>
+  <si>
+    <t>john.lattimore@gpflewis.co.uk</t>
+  </si>
+  <si>
+    <t>sarika_chadda@hotmail.com</t>
+  </si>
+  <si>
+    <t>dyerbartlett@aol.com</t>
+  </si>
+  <si>
+    <t>kes786@gmail.com</t>
+  </si>
+  <si>
+    <t>tom@charwillmanagement.com</t>
+  </si>
+  <si>
+    <t>hineshbpatel@gmail.com</t>
+  </si>
+  <si>
+    <t>drdebian@gmail.com</t>
+  </si>
+  <si>
+    <t>mudith40@hotmail.com</t>
+  </si>
+  <si>
+    <t>centralpropertymanagement3@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>andrew.allan1961a@gmail.com</t>
+  </si>
+  <si>
+    <t>hema1957@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>ajrosen.wings@gmail.com</t>
+  </si>
+  <si>
+    <t>aschembri949@gmail.com</t>
+  </si>
+  <si>
+    <t>fremelandbrice@gmail.com</t>
+  </si>
+  <si>
+    <t>aalibaba15@yahoo.com</t>
+  </si>
+  <si>
+    <t>m.mcgaughin@beresfords.co.uk</t>
+  </si>
+  <si>
+    <t>susanclark354@btinternet.com</t>
+  </si>
+  <si>
+    <t>mark.joynson@talktalk.net</t>
+  </si>
+  <si>
+    <t>mariella.metcalfe@wiltonrecap.com</t>
+  </si>
+  <si>
+    <t>monika.maguda@gmail.com</t>
+  </si>
+  <si>
+    <t>info@kendallsflorist.co.uk</t>
+  </si>
+  <si>
+    <t>kimknox21@googlemail.com</t>
+  </si>
+  <si>
+    <t>victoriakgreen@hotmail.co.uk</t>
+  </si>
+  <si>
+    <t>caiperkins@hotmail.com</t>
+  </si>
+  <si>
+    <t>yasarahmad@icloud.com</t>
+  </si>
+  <si>
+    <t>richmondandkingstonpropertymanagement4@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>10ruesaintvinccent@gmail.com</t>
+  </si>
+  <si>
+    <t>drathod75@yahoo.com</t>
+  </si>
+  <si>
+    <t>richard.parry16@outlook.com</t>
+  </si>
+  <si>
+    <t>peter.dubois@telia.com</t>
+  </si>
+  <si>
+    <t>finance@clearviewhomes.co.uk</t>
+  </si>
+  <si>
+    <t>abbie.tallack@cubittandwest.co.uk</t>
+  </si>
+  <si>
+    <t>kavi911@hotmail.com</t>
+  </si>
+  <si>
+    <t>aydin@linleyandsimpson.co.uk</t>
+  </si>
+  <si>
+    <t>jaspal.bhamra@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>hari_cole@hotmail.com</t>
+  </si>
+  <si>
+    <t>danielprideaux@ymail.com</t>
+  </si>
+  <si>
+    <t>karon.sheen@sky.com</t>
+  </si>
+  <si>
+    <t>arabidian@gmail.com</t>
+  </si>
+  <si>
+    <t>001Nz000007zvzrIAA</t>
+  </si>
+  <si>
+    <t>southeastpm@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>dexterssoutheastsoutheastpm@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>001Nz0000080H4LIAU</t>
+  </si>
+  <si>
+    <t>northpropertymanagement3@dexters.co.uk</t>
+  </si>
+  <si>
+    <t>dextersnorthnorthpropertymanagement3@dexters.co.uk</t>
   </si>
 </sst>
 </file>
@@ -75187,8 +75584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E191D2-8F29-433E-B86D-CAB7B12C6ADF}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H151"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -77322,4 +77719,2634 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09721628-474C-4D38-8482-68F390EB0E88}">
+  <dimension ref="A1:H153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4040</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4041</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4042</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4321</v>
+      </c>
+      <c r="D2">
+        <v>172834</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4322</v>
+      </c>
+      <c r="D3">
+        <v>173131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4049</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D4">
+        <v>173946</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4051</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4324</v>
+      </c>
+      <c r="D5">
+        <v>174055</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D6">
+        <v>175065</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4055</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4326</v>
+      </c>
+      <c r="D7">
+        <v>176378</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4327</v>
+      </c>
+      <c r="D8">
+        <v>180234</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4059</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4328</v>
+      </c>
+      <c r="D9">
+        <v>180917</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4061</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4329</v>
+      </c>
+      <c r="D10">
+        <v>183644</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4330</v>
+      </c>
+      <c r="D11">
+        <v>183079</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4065</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4331</v>
+      </c>
+      <c r="D12">
+        <v>184050</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4332</v>
+      </c>
+      <c r="D13">
+        <v>182884</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4333</v>
+      </c>
+      <c r="D14">
+        <v>186035</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4334</v>
+      </c>
+      <c r="D15">
+        <v>186267</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4335</v>
+      </c>
+      <c r="D16">
+        <v>186833</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4336</v>
+      </c>
+      <c r="D17">
+        <v>186031</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4337</v>
+      </c>
+      <c r="D18">
+        <v>187845</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4338</v>
+      </c>
+      <c r="D19">
+        <v>187904</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4339</v>
+      </c>
+      <c r="D20">
+        <v>188414</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4340</v>
+      </c>
+      <c r="D21">
+        <v>189273</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4341</v>
+      </c>
+      <c r="D22">
+        <v>189294</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4342</v>
+      </c>
+      <c r="D23">
+        <v>176193</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D24">
+        <v>190267</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4344</v>
+      </c>
+      <c r="D25">
+        <v>15123</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4093</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4345</v>
+      </c>
+      <c r="D26">
+        <v>188670</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4095</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4346</v>
+      </c>
+      <c r="D27">
+        <v>190812</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4097</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4347</v>
+      </c>
+      <c r="D28">
+        <v>192116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4099</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4348</v>
+      </c>
+      <c r="D29">
+        <v>192652</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D30">
+        <v>161737</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4350</v>
+      </c>
+      <c r="D31">
+        <v>192754</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4351</v>
+      </c>
+      <c r="D32">
+        <v>194479</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4352</v>
+      </c>
+      <c r="D33">
+        <v>195142</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4353</v>
+      </c>
+      <c r="D34">
+        <v>190573</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4354</v>
+      </c>
+      <c r="D35">
+        <v>195449</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D36">
+        <v>195826</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4356</v>
+      </c>
+      <c r="D37">
+        <v>196094</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4340</v>
+      </c>
+      <c r="D38">
+        <v>189273</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4357</v>
+      </c>
+      <c r="D39">
+        <v>196824</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4358</v>
+      </c>
+      <c r="D40">
+        <v>197417</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4359</v>
+      </c>
+      <c r="D41">
+        <v>197456</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4360</v>
+      </c>
+      <c r="D42">
+        <v>195434</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4361</v>
+      </c>
+      <c r="D43">
+        <v>197608</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4362</v>
+      </c>
+      <c r="D44">
+        <v>198146</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4363</v>
+      </c>
+      <c r="D45">
+        <v>198230</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4364</v>
+      </c>
+      <c r="D46">
+        <v>198287</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4358</v>
+      </c>
+      <c r="D47">
+        <v>197417</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4365</v>
+      </c>
+      <c r="D48">
+        <v>198936</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4366</v>
+      </c>
+      <c r="D49">
+        <v>199279</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4367</v>
+      </c>
+      <c r="D50">
+        <v>199444</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4360</v>
+      </c>
+      <c r="D51">
+        <v>195434</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4368</v>
+      </c>
+      <c r="D52">
+        <v>177639</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4368</v>
+      </c>
+      <c r="D53">
+        <v>177639</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4145</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4369</v>
+      </c>
+      <c r="D54">
+        <v>68834</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4370</v>
+      </c>
+      <c r="D55">
+        <v>200416</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4149</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4371</v>
+      </c>
+      <c r="D56">
+        <v>200409</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4372</v>
+      </c>
+      <c r="D57">
+        <v>200450</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4153</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4373</v>
+      </c>
+      <c r="D58">
+        <v>200461</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D59">
+        <v>115441</v>
+      </c>
+      <c r="H59" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4375</v>
+      </c>
+      <c r="D60">
+        <v>197972</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4376</v>
+      </c>
+      <c r="D61">
+        <v>200542</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D62">
+        <v>91821</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4163</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4378</v>
+      </c>
+      <c r="D63">
+        <v>112070</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4165</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4379</v>
+      </c>
+      <c r="D64">
+        <v>177452</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4379</v>
+      </c>
+      <c r="D65">
+        <v>177452</v>
+      </c>
+      <c r="H65" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4380</v>
+      </c>
+      <c r="D66">
+        <v>201021</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4381</v>
+      </c>
+      <c r="D67">
+        <v>144079</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4369</v>
+      </c>
+      <c r="D68">
+        <v>68834</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4382</v>
+      </c>
+      <c r="D69">
+        <v>48936</v>
+      </c>
+      <c r="H69" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4383</v>
+      </c>
+      <c r="D70">
+        <v>201304</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4384</v>
+      </c>
+      <c r="D71">
+        <v>201324</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4385</v>
+      </c>
+      <c r="D72">
+        <v>32284</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4386</v>
+      </c>
+      <c r="D73">
+        <v>201502</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4183</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4387</v>
+      </c>
+      <c r="D74">
+        <v>200672</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4388</v>
+      </c>
+      <c r="D75">
+        <v>177644</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4187</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4340</v>
+      </c>
+      <c r="D76">
+        <v>195434</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4188</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D77">
+        <v>180172</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4390</v>
+      </c>
+      <c r="D78">
+        <v>201775</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4391</v>
+      </c>
+      <c r="D79">
+        <v>202129</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4392</v>
+      </c>
+      <c r="D80">
+        <v>201267</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4196</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4393</v>
+      </c>
+      <c r="D81">
+        <v>202241</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4394</v>
+      </c>
+      <c r="D82">
+        <v>202140</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4200</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D83">
+        <v>202412</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D84">
+        <v>109024</v>
+      </c>
+      <c r="H84" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4204</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4397</v>
+      </c>
+      <c r="D85">
+        <v>202604</v>
+      </c>
+      <c r="H85" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4206</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4398</v>
+      </c>
+      <c r="D86">
+        <v>202734</v>
+      </c>
+      <c r="H86" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4208</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4379</v>
+      </c>
+      <c r="D87">
+        <v>177452</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4209</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4399</v>
+      </c>
+      <c r="D88">
+        <v>202889</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4211</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4400</v>
+      </c>
+      <c r="D89">
+        <v>202953</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4213</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D90">
+        <v>149907</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4215</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4402</v>
+      </c>
+      <c r="D91">
+        <v>203065</v>
+      </c>
+      <c r="H91" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D92">
+        <v>115441</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4403</v>
+      </c>
+      <c r="D93">
+        <v>203114</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4220</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4404</v>
+      </c>
+      <c r="D94">
+        <v>126931</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4222</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D95">
+        <v>203148</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4406</v>
+      </c>
+      <c r="D96">
+        <v>203229</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4226</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4407</v>
+      </c>
+      <c r="D97">
+        <v>203519</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4228</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4408</v>
+      </c>
+      <c r="D98">
+        <v>116942</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D99">
+        <v>203472</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4410</v>
+      </c>
+      <c r="D100">
+        <v>203614</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D101">
+        <v>149907</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4235</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4388</v>
+      </c>
+      <c r="D102">
+        <v>177644</v>
+      </c>
+      <c r="H102" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4411</v>
+      </c>
+      <c r="D103">
+        <v>172701</v>
+      </c>
+      <c r="H103" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4412</v>
+      </c>
+      <c r="D104">
+        <v>203884</v>
+      </c>
+      <c r="H104" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4413</v>
+      </c>
+      <c r="D105">
+        <v>203882</v>
+      </c>
+      <c r="H105" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4414</v>
+      </c>
+      <c r="D106">
+        <v>203855</v>
+      </c>
+      <c r="H106" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4415</v>
+      </c>
+      <c r="D107">
+        <v>177638</v>
+      </c>
+      <c r="H107" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4416</v>
+      </c>
+      <c r="D108">
+        <v>203947</v>
+      </c>
+      <c r="H108" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4400</v>
+      </c>
+      <c r="D109">
+        <v>202953</v>
+      </c>
+      <c r="H109" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4249</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4417</v>
+      </c>
+      <c r="D110">
+        <v>204248</v>
+      </c>
+      <c r="H110" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4251</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4418</v>
+      </c>
+      <c r="D111">
+        <v>198444</v>
+      </c>
+      <c r="H111" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4253</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4419</v>
+      </c>
+      <c r="D112">
+        <v>204414</v>
+      </c>
+      <c r="H112" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4255</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D113">
+        <v>115441</v>
+      </c>
+      <c r="H113" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4420</v>
+      </c>
+      <c r="D114">
+        <v>204498</v>
+      </c>
+      <c r="H114" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4258</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4421</v>
+      </c>
+      <c r="D115">
+        <v>204523</v>
+      </c>
+      <c r="H115" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4260</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4422</v>
+      </c>
+      <c r="D116">
+        <v>20321</v>
+      </c>
+      <c r="H116" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D117">
+        <v>115441</v>
+      </c>
+      <c r="H117" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4263</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4385</v>
+      </c>
+      <c r="D118">
+        <v>32284</v>
+      </c>
+      <c r="H118" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4423</v>
+      </c>
+      <c r="D119">
+        <v>204643</v>
+      </c>
+      <c r="H119" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4422</v>
+      </c>
+      <c r="D120">
+        <v>20321</v>
+      </c>
+      <c r="H120" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4267</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4368</v>
+      </c>
+      <c r="D121">
+        <v>177639</v>
+      </c>
+      <c r="H121" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4268</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D122">
+        <v>204705</v>
+      </c>
+      <c r="H122" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4270</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4425</v>
+      </c>
+      <c r="D123">
+        <v>97648</v>
+      </c>
+      <c r="H123" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4272</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D124">
+        <v>204732</v>
+      </c>
+      <c r="H124" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4274</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4411</v>
+      </c>
+      <c r="D125">
+        <v>172701</v>
+      </c>
+      <c r="H125" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4275</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4427</v>
+      </c>
+      <c r="D126">
+        <v>204882</v>
+      </c>
+      <c r="H126" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4277</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4415</v>
+      </c>
+      <c r="D127">
+        <v>177638</v>
+      </c>
+      <c r="H127" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4278</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4428</v>
+      </c>
+      <c r="D128">
+        <v>204900</v>
+      </c>
+      <c r="H128" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4280</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4429</v>
+      </c>
+      <c r="D129">
+        <v>204919</v>
+      </c>
+      <c r="H129" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4415</v>
+      </c>
+      <c r="D130">
+        <v>177638</v>
+      </c>
+      <c r="H130" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4430</v>
+      </c>
+      <c r="D131">
+        <v>205054</v>
+      </c>
+      <c r="H131" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4285</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4414</v>
+      </c>
+      <c r="D132">
+        <v>203855</v>
+      </c>
+      <c r="H132" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4286</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4431</v>
+      </c>
+      <c r="D133">
+        <v>205079</v>
+      </c>
+      <c r="H133" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4288</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D134">
+        <v>157911</v>
+      </c>
+      <c r="H134" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4290</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4433</v>
+      </c>
+      <c r="D135">
+        <v>205215</v>
+      </c>
+      <c r="H135" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4292</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4434</v>
+      </c>
+      <c r="D136">
+        <v>205352</v>
+      </c>
+      <c r="H136" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4294</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4435</v>
+      </c>
+      <c r="D137">
+        <v>205379</v>
+      </c>
+      <c r="H137" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D138">
+        <v>205582</v>
+      </c>
+      <c r="H138" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4413</v>
+      </c>
+      <c r="D139">
+        <v>203882</v>
+      </c>
+      <c r="H139" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4437</v>
+      </c>
+      <c r="D140">
+        <v>41640</v>
+      </c>
+      <c r="H140" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4301</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4438</v>
+      </c>
+      <c r="D141">
+        <v>205634</v>
+      </c>
+      <c r="H141" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D142">
+        <v>205705</v>
+      </c>
+      <c r="H142" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D143">
+        <v>155549</v>
+      </c>
+      <c r="H143" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4441</v>
+      </c>
+      <c r="D144">
+        <v>205743</v>
+      </c>
+      <c r="H144" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4417</v>
+      </c>
+      <c r="D145">
+        <v>204248</v>
+      </c>
+      <c r="H145" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D146">
+        <v>204001</v>
+      </c>
+      <c r="H146" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4443</v>
+      </c>
+      <c r="D147">
+        <v>205834</v>
+      </c>
+      <c r="H147" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4444</v>
+      </c>
+      <c r="D148">
+        <v>205917</v>
+      </c>
+      <c r="H148" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4368</v>
+      </c>
+      <c r="D149">
+        <v>177639</v>
+      </c>
+      <c r="H149" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4415</v>
+      </c>
+      <c r="D150">
+        <v>177638</v>
+      </c>
+      <c r="H150" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4445</v>
+      </c>
+      <c r="D151">
+        <v>206060</v>
+      </c>
+      <c r="H151" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D152">
+        <v>166332</v>
+      </c>
+      <c r="H152" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4450</v>
+      </c>
+      <c r="D153">
+        <v>122505</v>
+      </c>
+      <c r="H153" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>